--- a/reports/Itfuturz----Testing.xlsx
+++ b/reports/Itfuturz----Testing.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Performance Report</t>
   </si>
@@ -128,18 +128,6 @@
   </si>
   <si>
     <t>31/08/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">krunal  </t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Kevel Kevel Kevel</t>
   </si>
 </sst>
 </file>
@@ -516,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF10"/>
+  <dimension ref="A1:AF8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
@@ -655,202 +643,6 @@
       </c>
       <c r="AF8" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>41</v>
-      </c>
-      <c r="R9" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T9" t="s">
-        <v>41</v>
-      </c>
-      <c r="U9" t="s">
-        <v>40</v>
-      </c>
-      <c r="V9" t="s">
-        <v>41</v>
-      </c>
-      <c r="W9" t="s">
-        <v>41</v>
-      </c>
-      <c r="X9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>41</v>
-      </c>
-      <c r="R10" t="s">
-        <v>41</v>
-      </c>
-      <c r="S10" t="s">
-        <v>41</v>
-      </c>
-      <c r="T10" t="s">
-        <v>41</v>
-      </c>
-      <c r="U10" t="s">
-        <v>41</v>
-      </c>
-      <c r="V10" t="s">
-        <v>41</v>
-      </c>
-      <c r="W10" t="s">
-        <v>41</v>
-      </c>
-      <c r="X10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
